--- a/OpenMRS_DDT/DataOrigin/Main.rvl.xlsx
+++ b/OpenMRS_DDT/DataOrigin/Main.rvl.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="171">
   <si>
     <t>Flow</t>
   </si>
@@ -469,6 +469,69 @@
   </si>
   <si>
     <t>qwerty</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Iterate map</t>
+  </si>
+  <si>
+    <t>Iterate sequentially through spreadsheet object, you may findd it in the object tree</t>
+  </si>
+  <si>
+    <t>Iterate in random order through rows of a spreadsheet object</t>
+  </si>
+  <si>
+    <t>:</t>
   </si>
 </sst>
 </file>
@@ -489,7 +552,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2185">
+  <borders count="2206">
     <border>
       <left/>
       <right/>
@@ -2681,11 +2744,32 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2185">
+  <cellXfs count="2206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -4871,6 +4955,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2182" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2183" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2184" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2185" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2186" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2187" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2188" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2189" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2190" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2191" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2192" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2193" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2194" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2195" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2196" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2197" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2198" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2199" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2200" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2201" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2202" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2203" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2204" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2205" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5175,7 +5280,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H57"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.86328125" customWidth="true"/>
@@ -5254,7 +5359,7 @@
     </row>
     <row r="5">
       <c r="A5" s="193" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="B5" s="194"/>
       <c r="C5" s="195"/>
@@ -5272,7 +5377,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="203" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D6" s="204" t="s">
         <v>7</v>
@@ -5312,7 +5417,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="C8" s="326" t="s">
         <v>34</v>
@@ -5331,7 +5436,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="C9" s="326" t="s">
         <v>41</v>
@@ -5348,7 +5453,7 @@
     <row r="10">
       <c r="A10" s="327"/>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
         <v>42</v>
@@ -5357,7 +5462,7 @@
     <row r="11">
       <c r="A11" s="328"/>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
         <v>43</v>
@@ -5366,7 +5471,7 @@
     <row r="12">
       <c r="A12" s="329"/>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
@@ -5375,7 +5480,7 @@
     <row r="13">
       <c r="A13" s="330"/>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
         <v>45</v>
@@ -5384,186 +5489,141 @@
     <row r="14">
       <c r="A14" s="331"/>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="324" t="s">
+      <c r="A15" s="2187"/>
+      <c r="B15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2188"/>
+      <c r="B16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2189"/>
+      <c r="B17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2190"/>
+      <c r="B18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2191"/>
+      <c r="B19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="324" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="325" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="341"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="342" t="s">
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="325" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="341" t="s">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="371"/>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="377"/>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="209" t="s">
+      <c r="B22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2192" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="210" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="211" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="212" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="213" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="214" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="215" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="216"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="374" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="332" t="s">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2198" t="s">
         <v>8</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="366"/>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="333"/>
+      <c r="A25" s="2199"/>
       <c r="B25" t="s">
         <v>3</v>
       </c>
@@ -5577,303 +5637,521 @@
         <v>62</v>
       </c>
       <c r="F25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2202"/>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2203"/>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2200" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2201"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="342" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="371"/>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="377"/>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="209" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="210" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="211" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="212" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="213" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="214" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="215" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="216"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="374" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="332" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="366"/>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="333"/>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" t="s">
         <v>74</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G37" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="334" t="s">
+    <row r="38">
+      <c r="A38" s="334" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B38" t="s">
         <v>49</v>
       </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="335"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="217" t="s">
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="335"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="218" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="219"/>
-      <c r="D28" s="220"/>
-      <c r="E28" s="221"/>
-      <c r="F28" s="222"/>
-      <c r="G28" s="223"/>
-      <c r="H28" s="224"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="372"/>
-      <c r="B29" t="s">
+      <c r="B40" s="218" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="219"/>
+      <c r="D40" s="220"/>
+      <c r="E40" s="221"/>
+      <c r="F40" s="222"/>
+      <c r="G40" s="223"/>
+      <c r="H40" s="224"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="372"/>
+      <c r="B41" t="s">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C41" t="s">
         <v>60</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D41" t="s">
         <v>61</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E41" t="s">
         <v>62</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F41" t="s">
         <v>63</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G41" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="225" t="s">
+    <row r="42">
+      <c r="A42" s="225" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="226" t="s">
+      <c r="B42" s="226" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="227" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="228" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="229" t="s">
+      <c r="C42" s="227" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="228" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="229" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="230" t="s">
+      <c r="F42" s="230" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="231" t="s">
+      <c r="G42" s="231" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="232"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="347"/>
-      <c r="B31" t="s">
+      <c r="H42" s="232"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="347"/>
+      <c r="B43" t="s">
         <v>51</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E43" t="s">
         <v>68</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F43" t="s">
         <v>53</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G43" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="343" t="s">
+    <row r="44">
+      <c r="A44" s="343" t="s">
         <v>8</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B44" t="s">
         <v>48</v>
       </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="344"/>
-      <c r="B33" t="s">
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="344"/>
+      <c r="B45" t="s">
         <v>3</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C45" t="s">
         <v>30</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D45" t="s">
         <v>70</v>
       </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="348"/>
-      <c r="B34" t="s">
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="348"/>
+      <c r="B46" t="s">
         <v>3</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C46" t="s">
         <v>30</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D46" t="s">
         <v>71</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E46" t="s">
         <v>72</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F46" t="s">
         <v>63</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="349"/>
-      <c r="B35" t="s">
+    <row r="47">
+      <c r="A47" s="349"/>
+      <c r="B47" t="s">
         <v>3</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C47" t="s">
         <v>60</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D47" t="s">
         <v>61</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E47" t="s">
         <v>62</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F47" t="s">
         <v>74</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G47" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="345" t="s">
+    <row r="48">
+      <c r="A48" s="345" t="s">
         <v>28</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B48" t="s">
         <v>49</v>
       </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="346"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="233"/>
-      <c r="B38" s="234"/>
-      <c r="C38" s="235"/>
-      <c r="D38" s="236"/>
-      <c r="E38" s="237"/>
-      <c r="F38" s="238"/>
-      <c r="G38" s="239"/>
-      <c r="H38" s="240"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="265"/>
-      <c r="B39" s="266"/>
-      <c r="C39" s="267"/>
-      <c r="D39" s="268"/>
-      <c r="E39" s="269"/>
-      <c r="F39" s="270"/>
-      <c r="G39" s="271"/>
-      <c r="H39" s="272"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="273"/>
-      <c r="B40" s="274"/>
-      <c r="C40" s="275"/>
-      <c r="D40" s="276"/>
-      <c r="E40" s="277"/>
-      <c r="F40" s="278"/>
-      <c r="G40" s="279"/>
-      <c r="H40" s="280"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="281"/>
-      <c r="B41" s="282"/>
-      <c r="C41" s="283"/>
-      <c r="D41" s="284"/>
-      <c r="E41" s="285"/>
-      <c r="F41" s="286"/>
-      <c r="G41" s="287"/>
-      <c r="H41" s="288"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="289"/>
-      <c r="B42" s="290"/>
-      <c r="C42" s="291"/>
-      <c r="D42" s="292"/>
-      <c r="E42" s="293"/>
-      <c r="F42" s="294"/>
-      <c r="G42" s="295"/>
-      <c r="H42" s="296"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="297"/>
-      <c r="B43" s="298"/>
-      <c r="C43" s="299"/>
-      <c r="D43" s="300"/>
-      <c r="E43" s="301"/>
-      <c r="F43" s="302"/>
-      <c r="G43" s="303"/>
-      <c r="H43" s="304"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="305"/>
-      <c r="B44" s="306"/>
-      <c r="C44" s="307"/>
-      <c r="D44" s="308"/>
-      <c r="E44" s="309"/>
-      <c r="F44" s="310"/>
-      <c r="G44" s="311"/>
-      <c r="H44" s="312"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="313"/>
-      <c r="B45" s="314"/>
-      <c r="C45" s="315"/>
-      <c r="D45" s="316"/>
-      <c r="E45" s="317"/>
-      <c r="F45" s="318"/>
-      <c r="G45" s="319"/>
-      <c r="H45" s="320"/>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="346"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="233"/>
+      <c r="B50" s="234"/>
+      <c r="C50" s="235"/>
+      <c r="D50" s="236"/>
+      <c r="E50" s="237"/>
+      <c r="F50" s="238"/>
+      <c r="G50" s="239"/>
+      <c r="H50" s="240"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="265"/>
+      <c r="B51" s="266"/>
+      <c r="C51" s="267"/>
+      <c r="D51" s="268"/>
+      <c r="E51" s="269"/>
+      <c r="F51" s="270"/>
+      <c r="G51" s="271"/>
+      <c r="H51" s="272"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="273"/>
+      <c r="B52" s="274"/>
+      <c r="C52" s="275"/>
+      <c r="D52" s="276"/>
+      <c r="E52" s="277"/>
+      <c r="F52" s="278"/>
+      <c r="G52" s="279"/>
+      <c r="H52" s="280"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="281"/>
+      <c r="B53" s="282"/>
+      <c r="C53" s="283"/>
+      <c r="D53" s="284"/>
+      <c r="E53" s="285"/>
+      <c r="F53" s="286"/>
+      <c r="G53" s="287"/>
+      <c r="H53" s="288"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="289"/>
+      <c r="B54" s="290"/>
+      <c r="C54" s="291"/>
+      <c r="D54" s="292"/>
+      <c r="E54" s="293"/>
+      <c r="F54" s="294"/>
+      <c r="G54" s="295"/>
+      <c r="H54" s="296"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="297"/>
+      <c r="B55" s="298"/>
+      <c r="C55" s="299"/>
+      <c r="D55" s="300"/>
+      <c r="E55" s="301"/>
+      <c r="F55" s="302"/>
+      <c r="G55" s="303"/>
+      <c r="H55" s="304"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="305"/>
+      <c r="B56" s="306"/>
+      <c r="C56" s="307"/>
+      <c r="D56" s="308"/>
+      <c r="E56" s="309"/>
+      <c r="F56" s="310"/>
+      <c r="G56" s="311"/>
+      <c r="H56" s="312"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="313"/>
+      <c r="B57" s="314"/>
+      <c r="C57" s="315"/>
+      <c r="D57" s="316"/>
+      <c r="E57" s="317"/>
+      <c r="F57" s="318"/>
+      <c r="G57" s="319"/>
+      <c r="H57" s="320"/>
     </row>
   </sheetData>
 </worksheet>
